--- a/header_sections/header_text.xlsx
+++ b/header_sections/header_text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarjeisandsnes/webpage/header_sections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42267046-19EE-EC4C-B412-B8CD1F6017EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F72475D-D6C3-C548-93EB-FEDB08719A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1740" windowWidth="27240" windowHeight="15680" xr2:uid="{1CAD7F4E-7FD3-B443-87FB-C7BDA7BC2B2A}"/>
+    <workbookView xWindow="1480" yWindow="1740" windowWidth="27240" windowHeight="15680" activeTab="1" xr2:uid="{1CAD7F4E-7FD3-B443-87FB-C7BDA7BC2B2A}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>title</t>
   </si>
   <si>
     <t>This page aims to collect all relevant information on projects that I am working on, whether that be through jobs, personal projects, or otherwise. Do feel free to contact me should you want to chat or know me further!
 Below you can find my CV, my programming projects (ongoing, finished, or postponed), as well as other more personal projects.</t>
+  </si>
+  <si>
+    <t>Cette page a pour but de rassembler toutes les informations pertinentes sur les projets sur lesquels je travaille, que ce soit dans le cadre d'un emploi, d'un projet personnel ou autre. N'hésitez pas à me contacter si vous souhaitez discuter ou me connaître davantage !
+Vous trouverez ci-dessous mon CV, mes projets de programmation (en cours, terminés ou reportés), ainsi que d'autres projets plus personnels.</t>
   </si>
 </sst>
 </file>
@@ -420,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32192DC6-2ECE-3B45-AC68-936840F0F955}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -448,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3713BC-4E49-3F4D-BBF7-C2065AB59443}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -464,7 +468,7 @@
     </row>
     <row r="2" spans="1:1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
